--- a/data/sol_lin_sizes.xlsx
+++ b/data/sol_lin_sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\python_scripts\optimize\brother_square\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\NroomsOpti\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D3642838-971D-4013-BA43-114D6FF8D7E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{818B9511-E137-4879-9300-36F59ED95E14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046ACACC-3443-4418-9D32-C3C0217C9D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="216" windowWidth="20052" windowHeight="11520" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
+    <workbookView xWindow="1536" yWindow="840" windowWidth="20052" windowHeight="11520" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.500000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.0000000000000027</v>
       </c>
       <c r="C6">
-        <v>3.5000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9.0000000000000036</v>
       </c>
       <c r="C11">
-        <v>3.5000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C14">
-        <v>3.5000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>9.0000000000000036</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.5000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.0000000000000027</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -711,6 +711,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E59E4337E4CEF34582A9AF5EADC6ED5B" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3addb3da2cc80d19c498985a4a80d070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe8ac137-51a0-47a8-af54-5222cab873d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37e05e78391a31e6df0dae36f6b9643c" ns3:_="">
     <xsd:import namespace="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
@@ -874,22 +889,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15AC6C95-DAD8-479B-9EAE-ACA6FF2E8C71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -905,28 +929,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/sol_lin_sizes.xlsx
+++ b/data/sol_lin_sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\NroomsOpti\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046ACACC-3443-4418-9D32-C3C0217C9D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE47DD7-7B54-4B24-B734-ECD453A186AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="840" windowWidth="20052" windowHeight="11520" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
+    <workbookView xWindow="2532" yWindow="300" windowWidth="20052" windowHeight="11520" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.75</v>
+        <v>10.500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000027</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>9.0000000000000036</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>9.0000000000000036</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>7.0000000000000027</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -711,21 +711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E59E4337E4CEF34582A9AF5EADC6ED5B" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3addb3da2cc80d19c498985a4a80d070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe8ac137-51a0-47a8-af54-5222cab873d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37e05e78391a31e6df0dae36f6b9643c" ns3:_="">
     <xsd:import namespace="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
@@ -889,31 +874,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15AC6C95-DAD8-479B-9EAE-ACA6FF2E8C71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -929,4 +905,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/sol_lin_sizes.xlsx
+++ b/data/sol_lin_sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\NroomsOpti\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE47DD7-7B54-4B24-B734-ECD453A186AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B64F10-74C0-4990-B0C8-C9CB0B08BDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="300" windowWidth="20052" windowHeight="11520" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
+    <workbookView xWindow="2232" yWindow="84" windowWidth="20052" windowHeight="11748" xr2:uid="{8837805F-BCF7-44EA-AB2E-0A6F5DF1AC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -47,12 +47,18 @@
   <si>
     <t>area</t>
   </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +67,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,319 +429,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629CF00-6A93-4639-B639-0D4BD40223C6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8</v>
       </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="F4" s="1">
         <v>10.500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.5000000000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13" xr:uid="{8D4A59E2-1473-4E49-A3E8-07CFDF51C2CE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-      <sortCondition ref="A1:A13"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E59E4337E4CEF34582A9AF5EADC6ED5B" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3addb3da2cc80d19c498985a4a80d070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe8ac137-51a0-47a8-af54-5222cab873d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37e05e78391a31e6df0dae36f6b9643c" ns3:_="">
     <xsd:import namespace="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
@@ -874,22 +746,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15AC6C95-DAD8-479B-9EAE-ACA6FF2E8C71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -905,28 +786,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5322EF2-DA4E-4456-B5A4-9B008D8678E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46444768-A6AA-4195-B2BC-7B348E8F7809}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fe8ac137-51a0-47a8-af54-5222cab873d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>